--- a/Turma Intensivo - Manhã Julho 2017/Aula 5/Procv 1 Tabela de Preço Idiomas.xlsx
+++ b/Turma Intensivo - Manhã Julho 2017/Aula 5/Procv 1 Tabela de Preço Idiomas.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabela Atual" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Francês Avançado</t>
+  </si>
+  <si>
+    <t>Mensalidade + Apostila</t>
   </si>
 </sst>
 </file>
@@ -97,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,18 +123,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -471,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,9 +500,10 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,8 +513,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -505,8 +527,12 @@
       <c r="C2" s="3">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="5">
+        <f>(C2*15%)+C2</f>
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -516,8 +542,12 @@
       <c r="C3" s="3">
         <v>180</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D10" si="0">(C3*15%)+C3</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -527,8 +557,12 @@
       <c r="C4" s="3">
         <v>270</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>310.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -538,8 +572,12 @@
       <c r="C5" s="3">
         <v>130</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>149.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -549,8 +587,12 @@
       <c r="C6" s="3">
         <v>180</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -560,8 +602,12 @@
       <c r="C7" s="3">
         <v>230</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>264.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -571,8 +617,12 @@
       <c r="C8" s="3">
         <v>170</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>195.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -582,8 +632,12 @@
       <c r="C9" s="3">
         <v>217</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>249.55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -592,6 +646,10 @@
       </c>
       <c r="C10" s="3">
         <v>280</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
